--- a/inst/examples/2015-2016_P1_MAT15403_xm151020_ICT_results.xlsx
+++ b/inst/examples/2015-2016_P1_MAT15403_xm151020_ICT_results.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="10840" yWindow="500" windowWidth="15500" windowHeight="20400"/>
   </bookViews>
   <sheets>
-    <sheet name="MAT15303" sheetId="1" r:id="rId1"/>
+    <sheet name="MAT15403" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
